--- a/biology/Zoologie/Antygomonas/Antygomonas.xlsx
+++ b/biology/Zoologie/Antygomonas/Antygomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antygomonas est un genre de Kinorhynches, le seul de la famille des Antygomonidae.
 Ce sont de petits invertébrés faisant partie du meiobenthos.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Antygomonas incomitata Nebelsick, 1990
 Antygomonas oreas Bauer-Nebelsick, 1996
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nebelsick, 1990 : Antygomonas incomitata gen. et sp. n. Cyclorhagida, Kinorhyncha and its phylogenetic relationships. Zoologica Scripta, vol. 19, n. 2, p. 143-152.
 Adrianov &amp; Malakhov, 1994 : Kinorhyncha: Structure, development, phylogeny and taxonomy. Nauka Publishing, p. 1-260.</t>
